--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1.782259294303912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.2028382723242572</v>
+        <v>-0.08289353495386509</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.9921462019007898</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-0.9007664217083988</v>
+        <v>-0.3230348957779294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.5959239132369731</v>
+        <v>-0.363786394693788</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-1.120856461469888</v>
+        <v>0.2467309912830284</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.3150445116460121</v>
+        <v>-0.06959526544320083</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.6309321758273256</v>
+        <v>-0.2139598932957232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.2946875655135184</v>
+        <v>1.160201558804674</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>1.394716403166685</v>
+        <v>0.2932139896134167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>2.01634251950924</v>
+        <v>0.903223459378788</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>1.242549344471122</v>
+        <v>1.048604932640185</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>1.129570842833005</v>
+        <v>1.078804187516891</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.939772997598466</v>
+        <v>1.31837503023402</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>1.180122656701199</v>
+        <v>1.06837811337479</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>1.129049187797948</v>
+        <v>1.25598608434605</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.090021059558644</v>
+        <v>1.658305347589661</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.381744454873757</v>
+        <v>1.435208340819005</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.633367354477078</v>
+        <v>1.407107513712802</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.084642581417584</v>
+        <v>1.488472133572305</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.404039427736437</v>
+        <v>1.577589817310243</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.649731081352623</v>
+        <v>1.464859320654099</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.521991363853026</v>
+        <v>1.644157643645183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.593617458167307</v>
+        <v>1.979569114089963</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.031337289618551</v>
+        <v>1.639881111696151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.6904035303825</v>
+        <v>1.586470485311331</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.885212754467758</v>
+        <v>1.815212363528707</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.81400703472574</v>
+        <v>1.806931013599544</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.014077225132471</v>
+        <v>1.974604558490256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>1.877372574190161</v>
+        <v>2.140635848901895</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>2.208009493344054</v>
+        <v>1.99288634244883</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.300089002375394</v>
+        <v>2.284026378382942</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.190100401513395</v>
+        <v>2.119133965447961</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.296241910075758</v>
+        <v>2.336516087993035</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.948889539247078</v>
+        <v>2.162438527487853</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.88787455560655</v>
+        <v>1.93172124148786</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>2.279995067217899</v>
+        <v>1.404530461900833</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.224414593777601</v>
+        <v>1.887821778955101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.110508995085002</v>
+        <v>1.264761787657309</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.400566035871109</v>
+        <v>1.798687504247187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.120504106595632</v>
+        <v>1.17909021197069</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.381641980784787</v>
+        <v>1.636329093826605</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.6487450558480656</v>
+        <v>1.008270799755984</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>1.025257057800411</v>
+        <v>0.5345697479163913</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.5563247180809361</v>
+        <v>1.247274949485733</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-1.000425304790598</v>
+        <v>0.824608016336259</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.013584382764045</v>
+        <v>1.395219579261608</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.841794035573197</v>
+        <v>-1.788000783651811</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.859952625832229</v>
+        <v>-0.02261741485058977</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.99720978720075</v>
+        <v>-1.119700950349478</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-1.788000783651811</v>
+        <v>-2.680286313062752</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.264747916836839</v>
+        <v>-2.013357217277445</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.5713481720502012</v>
+        <v>-1.4191429117966</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.71430177854022</v>
+        <v>-0.1125839228000469</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.2827693069175186</v>
+        <v>-1.098964423305859</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>6.200092505048471</v>
+        <v>1.055324027461602</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.895062464652677</v>
+        <v>0.5759895884974942</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.098964423305859</v>
+        <v>1.514644056931957</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>2.222432428535481</v>
+        <v>-0.06175132635745095</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.24168824042239</v>
+        <v>1.896944139870205</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.429058262078644</v>
+        <v>0.5116467003986713</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.133246428602353</v>
+        <v>1.916393754370604</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.260264546812519</v>
+        <v>0.4136280550221194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.1354275086414392</v>
+        <v>0.3530477102890783</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.916393754370604</v>
+        <v>-0.8557279162653919</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.6800305325212697</v>
+        <v>-0.2004689067778398</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6738153173904027</v>
+        <v>-0.7016063587211741</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.67670478866615</v>
+        <v>0.2942159770784825</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.692247441448246</v>
+        <v>-0.7359525160776204</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.168821580544521</v>
+        <v>0.6923809915882817</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.9794361377544636</v>
+        <v>-0.01286797263981843</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.7359525160776204</v>
+        <v>-0.1316183744203947</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.287495466512433</v>
+        <v>-0.09133135081734745</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.1233178182500572</v>
+        <v>-0.1754728623905355</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.77500207390533</v>
+        <v>-0.0331361487157622</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.09977030619552352</v>
+        <v>-0.187152549496028</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.359191874382004</v>
+        <v>-0.3126391654689975</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.7911557381817147</v>
+        <v>-0.1152140120150968</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.187152549496028</v>
+        <v>0.3903331526556864</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.3967335531545713</v>
+        <v>-0.2264357368625403</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6196879289662949</v>
+        <v>0.5695821893874298</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.9145927822770572</v>
+        <v>0.316149716722669</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6151910652193671</v>
+        <v>0.6150340712028246</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.258496331371473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6150340712028246</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>1.217702097822548</v>
+        <v>0.6473947787101642</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.144978573787081</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.782259294303912</v>
+        <v>1.854677717601594</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>1.981300392979479</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.08289353495386509</v>
+        <v>2.228397109637226</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.381024225294869</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-0.9921462019007898</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.3230348957779294</v>
+        <v>1.929644353290927</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.120856461469888</v>
+        <v>-0.4626567965509865</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.363786394693788</v>
+        <v>-0.2018858887078534</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.8792832172735965</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.2467309912830284</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-0.06959526544320083</v>
+        <v>-0.10374497415091</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.2946875655135184</v>
+        <v>-0.4861108058567654</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-0.2139598932957232</v>
+        <v>0.2108047537406676</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>0.9337833426867448</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.160201558804674</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.2932139896134167</v>
+        <v>1.899713704008654</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.242549344471122</v>
+        <v>2.490556233265284</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.903223459378788</v>
+        <v>0.9684279156219944</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>2.791140000794279</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>1.048604932640185</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.078804187516891</v>
+        <v>1.722110645261998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180122656701199</v>
+        <v>1.175152734113438</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.31837503023402</v>
+        <v>1.69818237209749</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.4451370000809973</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.06837811337479</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.25598608434605</v>
+        <v>0.6480763427741953</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.381744454873757</v>
+        <v>-0.2674335569108899</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.658305347589661</v>
+        <v>0.679606031449409</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2545814083968478</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.435208340819005</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.407107513712802</v>
+        <v>1.223618887196531</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.404039427736437</v>
+        <v>2.038609866767938</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.488472133572305</v>
+        <v>1.325176859452326</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.297015177357297</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.577589817310243</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.464859320654099</v>
+        <v>0.309136676902555</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.593617458167307</v>
+        <v>1.566972126803345</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.644157643645183</v>
+        <v>1.522808462763714</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.365576377841027</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.979569114089963</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.639881111696151</v>
+        <v>1.582979977679533</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.885212754467758</v>
+        <v>2.246337373619012</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.586470485311331</v>
+        <v>1.693557061600992</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.204449574611278</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.815212363528707</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.806931013599544</v>
+        <v>1.401113624217043</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.877372574190161</v>
+        <v>1.777150434343522</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.974604558490256</v>
+        <v>1.905564797014625</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.18621550610123</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.140635848901895</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.99288634244883</v>
+        <v>2.357704431248409</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.284026378382942</v>
+        <v>1.953801996161997</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.119133965447961</v>
+        <v>2.285039356133778</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.336516087993035</v>
+        <v>1.741137453897301</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.162438527487853</v>
+        <v>2.082477074609068</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.279995067217899</v>
+        <v>1.963716944695593</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.93172124148786</v>
+        <v>2.26303158209491</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.911050033324102</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.404530461900833</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.887821778955101</v>
+        <v>2.362613045431528</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.264761787657309</v>
+        <v>1.83152322656317</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.798687504247187</v>
+        <v>2.06914762522894</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.17909021197069</v>
+        <v>1.562095320687407</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.636329093826605</v>
+        <v>1.845103901518885</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.025257057800411</v>
+        <v>1.657291696732699</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.008270799755984</v>
+        <v>1.670042545405925</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.457852003181337</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.5345697479163913</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.247274949485733</v>
+        <v>0.7756897792100315</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.824608016336259</v>
+        <v>0.9716673922241847</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.395219579261608</v>
+        <v>1.221567067111873</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.788000783651811</v>
+        <v>-0.8985012482809474</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.02261741485058977</v>
+        <v>0.02570757229449772</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.788000783651811</v>
+        <v>-3.357986809108382</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.119700950349478</v>
+        <v>-1.069210638149831</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-3.258619210312885</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-2.680286313062752</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.013357217277445</v>
+        <v>-2.035749133083187</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.4191429117966</v>
+        <v>-2.792286268255573</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.1125839228000469</v>
+        <v>-2.462477360333626</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.098964423305859</v>
+        <v>-0.7241284594088016</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.055324027461602</v>
+        <v>-0.1006764062950749</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.098964423305859</v>
+        <v>-0.1388955462784724</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.5759895884974942</v>
+        <v>1.381312451245953</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.4255262881966981</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.514644056931957</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-0.06175132635745095</v>
+        <v>2.107044281672787</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.896944139870205</v>
+        <v>2.610016230858681</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.5116467003986713</v>
+        <v>0.4182551040150306</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.916393754370604</v>
+        <v>3.72986100763808</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.4136280550221194</v>
+        <v>1.357201584213352</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.916393754370604</v>
+        <v>3.463320568938566</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.3530477102890783</v>
+        <v>1.409962909690821</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>3.293290997728171</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.8557279162653919</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-0.2004689067778398</v>
+        <v>1.50842747477733</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.7016063587211741</v>
+        <v>0.2608494586689769</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.2942159770784825</v>
+        <v>1.34681835462207</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.7359525160776204</v>
+        <v>-0.3358560228777674</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.6923809915882817</v>
+        <v>1.155533515694374</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.7359525160776204</v>
+        <v>-0.2871245688614854</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.01286797263981843</v>
+        <v>1.278647349573703</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.2814561130375925</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.1316183744203947</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.09133135081734745</v>
+        <v>0.06837453075889677</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.1754728623905355</v>
+        <v>-0.4741729829813357</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.0331361487157622</v>
+        <v>0.061310808297943</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.187152549496028</v>
+        <v>-1.054811008161194</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.3126391654689975</v>
+        <v>-0.009717596728553435</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.187152549496028</v>
+        <v>-0.9636841177852018</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.1152140120150968</v>
+        <v>-0.2108962101654677</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6470065423293869</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.3903331526556864</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-0.2264357368625403</v>
+        <v>1.000784331770643</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5695821893874298</v>
+        <v>2.411585640991931</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.316149716722669</v>
+        <v>0.3354683421588955</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6150340712028246</v>
+        <v>1.593155398714674</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.6473947787101642</v>
+        <v>0.1924237296221154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.053865394798304</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.8520203638610502</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.357986809108382</v>
+        <v>-4.582005882803108</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.069210638149831</v>
+        <v>-5.994170454492942</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-2.035749133083187</v>
+        <v>-1.049961713694181</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.792286268255573</v>
+        <v>-1.267247591471965</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.462477360333626</v>
+        <v>-1.005653626649339</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.7241284594088016</v>
+        <v>-1.993193775713065</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1006764062950749</v>
+        <v>-1.870909066467608</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.1388955462784724</v>
+        <v>-0.4671761491813031</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.381312451245953</v>
+        <v>0.2002400689878225</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.107044281672787</v>
+        <v>2.734996705911419</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.610016230858681</v>
+        <v>1.709116405894839</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.4182551040150306</v>
+        <v>-0.3788276656591871</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.72986100763808</v>
+        <v>3.466439014514577</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.357201584213352</v>
+        <v>1.000518914838766</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>3.463320568938566</v>
+        <v>3.487159633365255</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.409962909690821</v>
+        <v>1.217008959015131</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.50842747477733</v>
+        <v>1.813346177122299</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.2608494586689769</v>
+        <v>1.845950461732038</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.34681835462207</v>
+        <v>3.888091057873155</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3358560228777674</v>
+        <v>-0.2883789941992343</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.155533515694374</v>
+        <v>1.082231571968229</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.2871245688614854</v>
+        <v>-0.1703190263133036</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.278647349573703</v>
+        <v>1.429443202289216</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.06837453075889677</v>
+        <v>1.03999779343249</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.4741729829813357</v>
+        <v>-0.2065224040868396</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.061310808297943</v>
+        <v>0.8057832540544929</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.054811008161194</v>
+        <v>-1.006986634874207</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.009717596728553435</v>
+        <v>-0.06480517924443152</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9636841177852018</v>
+        <v>-0.9450815092640785</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.2108962101654677</v>
+        <v>0.1338934428749328</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.000784331770643</v>
+        <v>0.9227184786156029</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.411585640991931</v>
+        <v>2.137819896031901</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.3354683421588955</v>
+        <v>0.3874019458836031</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.593155398714674</v>
+        <v>1.431852292002267</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.1924237296221154</v>
+        <v>-0.3363763021410726</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.053865394798304</v>
+        <v>2.034296706251992</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.8520203638610502</v>
+        <v>0.6096213037243059</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.144978573787081</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.854677717601594</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.981300392979479</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.228397109637226</v>
+        <v>2.228397109637203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,9 +447,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.381024225294869</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-0.4626567965509865</v>
+        <v>-0.4626567965509643</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.2018858887078534</v>
+        <v>-0.2018858887078645</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.8792832172735965</v>
+        <v>-0.8792832172735632</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>-0.10374497415091</v>
+        <v>-0.1037449741509211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.2108047537406676</v>
+        <v>0.2108047537406454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>0.9337833426867448</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -548,7 +536,7 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.9684279156219944</v>
+        <v>0.96842791562195</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>2.791140000794279</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.722110645261998</v>
+        <v>1.722110645261954</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +570,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.69818237209749</v>
+        <v>1.698182372097512</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +581,13 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.4451370000809973</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>0.6480763427741953</v>
+        <v>0.6480763427742176</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.2674335569108899</v>
+        <v>-0.2674335569108788</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -633,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>1.223618887196531</v>
+        <v>1.223618887196509</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>2.038609866767938</v>
+        <v>2.038609866767915</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.325176859452326</v>
+        <v>1.325176859452348</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -684,7 +672,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.522808462763714</v>
+        <v>1.522808462763692</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.582979977679533</v>
+        <v>1.582979977679555</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +700,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.246337373619012</v>
+        <v>2.246337373618967</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.693557061600992</v>
+        <v>1.693557061600948</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.204449574611278</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.401113624217043</v>
+        <v>1.401113624217065</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.777150434343522</v>
+        <v>1.777150434343544</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.905564797014625</v>
+        <v>1.905564797014669</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,7 +757,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>2.357704431248409</v>
+        <v>2.357704431248386</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +768,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.953801996161997</v>
+        <v>1.953801996162019</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.285039356133778</v>
+        <v>2.2850393561338</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +785,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.741137453897301</v>
+        <v>1.741137453897323</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.082477074609068</v>
+        <v>2.08247707460909</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.26303158209491</v>
+        <v>2.263031582094888</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>2.362613045431528</v>
+        <v>2.36261304543155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.83152322656317</v>
+        <v>1.831523226563148</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.06914762522894</v>
+        <v>2.069147625228918</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.562095320687407</v>
+        <v>1.562095320687429</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.845103901518885</v>
+        <v>1.845103901518907</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.670042545405925</v>
+        <v>1.670042545405948</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.7756897792100315</v>
+        <v>0.7756897792100093</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.9716673922241847</v>
+        <v>0.9716673922242069</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.221567067111873</v>
+        <v>1.221567067111828</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.02570757229449772</v>
+        <v>0.02570757229445331</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.582005882803108</v>
+        <v>-4.58200588280312</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-5.994170454492942</v>
+        <v>-5.994170454492931</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-3.258619210312885</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.049961713694181</v>
+        <v>-1.049961713694159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,7 +972,7 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.267247591471965</v>
+        <v>-1.267247591471976</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -1018,7 +1006,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.4671761491813031</v>
+        <v>-0.4671761491813142</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.4255262881966981</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.734996705911419</v>
+        <v>2.734996705911397</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1040,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.709116405894839</v>
+        <v>1.709116405894862</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.3788276656591871</v>
+        <v>-0.3788276656591538</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1109,7 +1097,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.813346177122299</v>
+        <v>1.813346177122321</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,7 +1108,7 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.845950461732038</v>
+        <v>1.845950461732082</v>
       </c>
       <c r="D43">
         <v>2024</v>
@@ -1137,7 +1125,7 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.2883789941992343</v>
+        <v>-0.2883789941992232</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.1703190263133036</v>
+        <v>-0.1703190263132703</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.429443202289216</v>
+        <v>1.429443202289193</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.2814561130375925</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8057832540544929</v>
+        <v>0.8057832540545151</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9450815092640785</v>
+        <v>-0.9450815092640896</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.1338934428749328</v>
+        <v>0.1338934428748884</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6470065423293869</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.9227184786156029</v>
+        <v>0.9227184786156251</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.137819896031901</v>
+        <v>2.137819896031878</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.3874019458836031</v>
+        <v>0.3874019458836253</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.431852292002267</v>
+        <v>1.431852292002245</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.034296706251992</v>
+        <v>2.034296706251948</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.6096213037243059</v>
+        <v>0.6096213037243281</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>0.6096213037243281</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.043309689777173</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.9040423720836799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
